--- a/data_config/BattleBoxShop.xlsx
+++ b/data_config/BattleBoxShop.xlsx
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>

--- a/data_config/BattleBoxShop.xlsx
+++ b/data_config/BattleBoxShop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13965" windowHeight="11670"/>
+    <workbookView windowWidth="18360" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <t>describe</t>
   </si>
   <si>
-    <t>boxGroup</t>
+    <t>boxShopItemList</t>
   </si>
   <si>
     <t>int</t>
@@ -67,7 +67,7 @@
     <t>介绍</t>
   </si>
   <si>
-    <t>商店宝箱组</t>
+    <t>商店宝箱购买项列表</t>
   </si>
   <si>
     <t>测试商店1</t>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>

--- a/data_config/BattleBoxShop.xlsx
+++ b/data_config/BattleBoxShop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18360" windowHeight="11670"/>
+    <workbookView windowWidth="16635" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
     <t>测试商店1介绍</t>
   </si>
   <si>
-    <t>10001,10002,10003,10004,10005</t>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>

--- a/data_config/BattleBoxShop.xlsx
+++ b/data_config/BattleBoxShop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16635" windowHeight="11700"/>
+    <workbookView windowWidth="20265" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
     <t>测试商店1介绍</t>
   </si>
   <si>
-    <t>1</t>
+    <t>10001</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
